--- a/App JSON Setting.xlsx
+++ b/App JSON Setting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CN-Dev-IPA-Mirror\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B677E8D0-4128-48C7-B935-21CCC4AA7471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16A2571-4E0E-45B2-B32F-E1C4A00E0722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t>"name":</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"version":</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,18 +100,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述，隔行用\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bundle ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>翻譯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>說明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,10 +125,6 @@
   </si>
   <si>
     <t>作者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App Size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -310,10 +294,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>百度地图xx广告_19.8.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>artworkUrl512</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,30 +306,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19.8.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注入xx广告插件(图层开发者)，功能默认开启，移除底部周边/移除底部打车/移除底部公共交通/搜索仅保留历史记录/移除行程分享。\n相关说明：\n插件启用：单指长按设置页面弹出菜单\n更新日志：App更新</t>
+    <t>BaiduMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可留空'""，或秋名山(ae86)、白嫖哥(bpg)、小白菜(xbc)、苓妹妹(lmm)、浥轻尘(yqc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.ios.youtube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YouTube</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>百度地图</t>
-  </si>
-  <si>
-    <t>BaiduMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可留空'""，或秋名山(ae86)、白嫖哥(bpg)、小白菜(xbc)、苓妹妹(lmm)、浥轻尘(yqc)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaiduMap_19.8.0_ae86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20240416083858</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YouTube Music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.ios.youtubemusic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App Size (MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述，隔行用\n，開首要補開發者名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.soulapp.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.xin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeChat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官替</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App名翻譯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File名翻譯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OfficialReplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者荣耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋名山\n全权限，仅砸壳！\n砸个王者看看，万一有人需要多开呢！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.smoba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240416213338</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.3.10602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅砸壳</t>
+  </si>
+  <si>
+    <t>Decrypted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroMoba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroMoba_9.3.10602_Decrypted_ae86</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,16 +504,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -468,11 +529,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -766,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -785,21 +846,28 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>46</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>452186370</v>
+        <v>989673964</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -807,19 +875,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="J3" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""name"": ","""",B1,"""",",")</f>
-        <v xml:space="preserve">     "name": "百度地图xx广告_19.8.0",</v>
+        <v xml:space="preserve">     "name": "王者荣耀",</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J4" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""type"": ","""",B9,"""",",")</f>
@@ -828,53 +896,46 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>61</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="J5" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""bundleID"": ","""",B6,"""",",")</f>
-        <v xml:space="preserve">     "bundleID": "com.baidu.map",</v>
+        <v xml:space="preserve">     "bundleID": "com.tencent.smoba",</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="J6" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""bundleIdentifier"": ","""",B6,"""",",")</f>
-        <v xml:space="preserve">     "bundleIdentifier": "com.baidu.map",</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+        <v xml:space="preserve">     "bundleIdentifier": "com.tencent.smoba",</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="J7" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""version"": ","""",B7,"""",",")</f>
-        <v xml:space="preserve">     "version": "19.8.0",</v>
+        <v xml:space="preserve">     "version": "9.3.10602",</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1">
-        <v>290455552</v>
+        <v>1580</v>
       </c>
       <c r="J8" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""versionDate"": ","""",B4,"""",",")</f>
@@ -883,50 +944,50 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="J9" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""fullDate"": ","""",B5,"""",",")</f>
-        <v xml:space="preserve">     "fullDate": "20240416083858",</v>
+        <v xml:space="preserve">     "fullDate": "20240416213338",</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="J10" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,"     ""size"": ",B8,",")</f>
-        <v xml:space="preserve">     "size": 290455552,</v>
+        <f>_xlfn.TEXTJOIN("",TRUE,"     ""size"": ",B22,",")</f>
+        <v xml:space="preserve">     "size": 1656750080,</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J11" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""down"": ""https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/",B4,"/",B10,".ipa"",")</f>
-        <v xml:space="preserve">     "down": "https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-16/BaiduMap_19.8.0_ae86.ipa",</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="90" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">     "down": "https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-16/HeroMoba_9.3.10602_Decrypted_ae86.ipa",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>56</v>
+        <v>39</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="J12" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""downloadURL"": ""https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/",B4,"/",B10,".ipa"",")</f>
-        <v xml:space="preserve">     "downloadURL": "https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-16/BaiduMap_19.8.0_ae86.ipa",</v>
+        <v xml:space="preserve">     "downloadURL": "https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-16/HeroMoba_9.3.10602_Decrypted_ae86.ipa",</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -936,209 +997,277 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="3"/>
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
       <c r="J14" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""localizedDescription"": ","""",B12,"""",",")</f>
-        <v xml:space="preserve">     "localizedDescription": "注入xx广告插件(图层开发者)，功能默认开启，移除底部周边/移除底部打车/移除底部公共交通/搜索仅保留历史记录/移除行程分享。\n相关说明：\n插件启用：单指长按设置页面弹出菜单\n更新日志：App更新",</v>
+        <v xml:space="preserve">     "localizedDescription": "秋名山\n全权限，仅砸壳！\n砸个王者看看，万一有人需要多开呢！",</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="J15" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""icon"": ""https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/",B6,".jpg"",")</f>
-        <v xml:space="preserve">     "icon": "https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.baidu.map.jpg",</v>
+        <v xml:space="preserve">     "icon": "https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.tencent.smoba.jpg",</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>50</v>
+      <c r="B16" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="J16" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""iconURL"": ""https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/",B6,".jpg"",")</f>
-        <v xml:space="preserve">     "iconURL": "https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.baidu.map.jpg",</v>
+        <v xml:space="preserve">     "iconURL": "https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.tencent.smoba.jpg",</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="8" t="str">
+      <c r="B17" s="7" t="str">
         <f>CONCATENATE("https://itunes.apple.com/lookup?id=",B2,"&amp;country=",B3)</f>
-        <v>https://itunes.apple.com/lookup?id=452186370&amp;country=cn</v>
+        <v>https://itunes.apple.com/lookup?id=989673964&amp;country=cn</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="8" t="str">
+      <c r="B18" s="7" t="str">
         <f>CONCATENATE("https://itunes.apple.com/lookup?id=",B2,"&amp;country=",B3)</f>
-        <v>https://itunes.apple.com/lookup?id=452186370&amp;country=cn</v>
+        <v>https://itunes.apple.com/lookup?id=989673964&amp;country=cn</v>
       </c>
       <c r="C18" s="11"/>
-      <c r="J18" s="5"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1">
+        <f>ROUNDDOWN(B8*1024*1024,0)</f>
+        <v>1656750080</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>12</v>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="7" t="str">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6" t="str">
         <f>CONCATENATE("https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/",B4,"/",B10,".ipa")</f>
-        <v>https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-16/BaiduMap_19.8.0_ae86.ipa</v>
-      </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
+        <v>https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-16/HeroMoba_9.3.10602_Decrypted_ae86.ipa</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="7" t="str">
+        <v>26</v>
+      </c>
+      <c r="B24" s="6" t="str">
         <f>CONCATENATE("https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/",B4,"/",B10,".ipa")</f>
-        <v>https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-16/BaiduMap_19.8.0_ae86.ipa</v>
+        <v>https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-16/HeroMoba_9.3.10602_Decrypted_ae86.ipa</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>59</v>
+        <v>27</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="7" t="str">
+        <v>29</v>
+      </c>
+      <c r="B27" s="6" t="str">
         <f>CONCATENATE("https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/",B6,".jpg")</f>
-        <v>https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.baidu.map.jpg</v>
+        <v>https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.tencent.smoba.jpg</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="7" t="str">
+        <v>30</v>
+      </c>
+      <c r="B28" s="6" t="str">
         <f>CONCATENATE("https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/",B6,".jpg")</f>
-        <v>https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.baidu.map.jpg</v>
+        <v>https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.tencent.smoba.jpg</v>
       </c>
       <c r="C28" s="11"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A30:C32" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:C32">
-      <sortCondition ref="A30:A32"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:B33">
-    <sortCondition ref="A31:A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:C36">
+    <sortCondition ref="A31:A36"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" xr:uid="{F9E54F4A-8537-4482-AF1F-EB475FB3152A}"/>
+    <hyperlink ref="D22" r:id="rId1" xr:uid="{F9E54F4A-8537-4482-AF1F-EB475FB3152A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1175,23 +1304,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1199,7 +1328,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1207,7 +1336,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1215,7 +1344,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1223,7 +1352,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>5</v>

--- a/App JSON Setting.xlsx
+++ b/App JSON Setting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CN-Dev-IPA-Mirror\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16A2571-4E0E-45B2-B32F-E1C4A00E0722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A41135-1331-421D-A64A-89ADBA82F70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$30:$C$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$30:$C$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t>"name":</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024-04-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IPA名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,17 +203,6 @@
   <si>
     <t>複製下表</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ss.iphone.ugc.Aweme</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抖音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Douyin</t>
   </si>
   <si>
     <r>
@@ -346,14 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOUL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.soulapp.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>com.tencent.xin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,26 +359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王者荣耀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋名山\n全权限，仅砸壳！\n砸个王者看看，万一有人需要多开呢！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.smoba</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20240416213338</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.3.10602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仅砸壳</t>
   </si>
   <si>
@@ -409,11 +366,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HeroMoba</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeroMoba_9.3.10602_Decrypted_ae86</t>
+    <t>2024-04-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240419000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.burbn.instagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.atebits.Tweetie2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X / Twitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.adobe.Adobe-Reader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adobe Acrobat Reader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.duolingo.DuolingoMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duolingo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.facebook.Facebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Facebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImgPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>me.imgbase.imgplay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.reddit.Reddit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reddit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spotify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.spotify.client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高德地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.13.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.autonavi.amap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amap_13.13.1_decrypted_tweak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高德地图_13.13.1_砸壳破解版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -534,6 +579,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -827,7 +875,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J17"/>
@@ -846,10 +894,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -864,10 +912,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>989673964</v>
+        <v>461703208</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -875,11 +923,11 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J3" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""name"": ","""",B1,"""",",")</f>
-        <v xml:space="preserve">     "name": "王者荣耀",</v>
+        <v xml:space="preserve">     "name": "高德地图",</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -887,7 +935,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="J4" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""type"": ","""",B9,"""",",")</f>
@@ -899,23 +947,23 @@
         <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J5" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""bundleID"": ","""",B6,"""",",")</f>
-        <v xml:space="preserve">     "bundleID": "com.tencent.smoba",</v>
+        <v xml:space="preserve">     "bundleID": "com.autonavi.amap",</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>71</v>
+      <c r="B6" t="s">
+        <v>85</v>
       </c>
       <c r="J6" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""bundleIdentifier"": ","""",B6,"""",",")</f>
-        <v xml:space="preserve">     "bundleIdentifier": "com.tencent.smoba",</v>
+        <v xml:space="preserve">     "bundleIdentifier": "com.autonavi.amap",</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -923,77 +971,74 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J7" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""version"": ","""",B7,"""",",")</f>
-        <v xml:space="preserve">     "version": "9.3.10602",</v>
+        <v xml:space="preserve">     "version": "13.13.1",</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1">
-        <v>1580</v>
+        <v>262</v>
       </c>
       <c r="J8" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""versionDate"": ","""",B4,"""",",")</f>
-        <v xml:space="preserve">     "versionDate": "2024-04-16",</v>
+        <v xml:space="preserve">     "versionDate": "2024-04-19",</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="J9" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""fullDate"": ","""",B5,"""",",")</f>
-        <v xml:space="preserve">     "fullDate": "20240416213338",</v>
+        <v xml:space="preserve">     "fullDate": "20240419000000",</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="J10" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""size"": ",B22,",")</f>
-        <v xml:space="preserve">     "size": 1656750080,</v>
+        <v xml:space="preserve">     "size": 274726912,</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J11" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""down"": ""https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/",B4,"/",B10,".ipa"",")</f>
-        <v xml:space="preserve">     "down": "https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-16/HeroMoba_9.3.10602_Decrypted_ae86.ipa",</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">     "down": "https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-19/Amap_13.13.1_decrypted_tweak.ipa",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="J12" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""downloadURL"": ""https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/",B4,"/",B10,".ipa"",")</f>
-        <v xml:space="preserve">     "downloadURL": "https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-16/HeroMoba_9.3.10602_Decrypted_ae86.ipa",</v>
+        <v xml:space="preserve">     "downloadURL": "https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-19/Amap_13.13.1_decrypted_tweak.ipa",</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J13" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""developerName"": ","""",B11,"""",",")</f>
-        <v xml:space="preserve">     "developerName": "秋名山",</v>
+        <v xml:space="preserve">     "developerName": "",</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1004,7 +1049,7 @@
       <c r="C14" s="4"/>
       <c r="J14" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""localizedDescription"": ","""",B12,"""",",")</f>
-        <v xml:space="preserve">     "localizedDescription": "秋名山\n全权限，仅砸壳！\n砸个王者看看，万一有人需要多开呢！",</v>
+        <v xml:space="preserve">     "localizedDescription": "高德地图_13.13.1_砸壳破解版",</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1016,7 +1061,7 @@
       </c>
       <c r="J15" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""icon"": ""https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/",B6,".jpg"",")</f>
-        <v xml:space="preserve">     "icon": "https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.tencent.smoba.jpg",</v>
+        <v xml:space="preserve">     "icon": "https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.autonavi.amap.jpg",</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1024,11 +1069,11 @@
         <v>2</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J16" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""iconURL"": ""https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/",B6,".jpg"",")</f>
-        <v xml:space="preserve">     "iconURL": "https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.tencent.smoba.jpg",</v>
+        <v xml:space="preserve">     "iconURL": "https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.autonavi.amap.jpg",</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1037,13 +1082,13 @@
       </c>
       <c r="B17" s="7" t="str">
         <f>CONCATENATE("https://itunes.apple.com/lookup?id=",B2,"&amp;country=",B3)</f>
-        <v>https://itunes.apple.com/lookup?id=989673964&amp;country=cn</v>
+        <v>https://itunes.apple.com/lookup?id=461703208&amp;country=cn</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1052,7 +1097,7 @@
       </c>
       <c r="B18" s="7" t="str">
         <f>CONCATENATE("https://itunes.apple.com/lookup?id=",B2,"&amp;country=",B3)</f>
-        <v>https://itunes.apple.com/lookup?id=989673964&amp;country=cn</v>
+        <v>https://itunes.apple.com/lookup?id=461703208&amp;country=cn</v>
       </c>
       <c r="C18" s="11"/>
       <c r="J18" s="4"/>
@@ -1074,7 +1119,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>12</v>
@@ -1082,7 +1127,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>9</v>
@@ -1090,11 +1135,11 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
         <f>ROUNDDOWN(B8*1024*1024,0)</f>
-        <v>1656750080</v>
+        <v>274726912</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>11</v>
@@ -1109,99 +1154,96 @@
       </c>
       <c r="B23" s="6" t="str">
         <f>CONCATENATE("https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/",B4,"/",B10,".ipa")</f>
-        <v>https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-16/HeroMoba_9.3.10602_Decrypted_ae86.ipa</v>
+        <v>https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-19/Amap_13.13.1_decrypted_tweak.ipa</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="6" t="str">
         <f>CONCATENATE("https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/",B4,"/",B10,".ipa")</f>
-        <v>https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-16/HeroMoba_9.3.10602_Decrypted_ae86.ipa</v>
+        <v>https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-19/Amap_13.13.1_decrypted_tweak.ipa</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="6" t="str">
         <f>CONCATENATE("https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/",B6,".jpg")</f>
-        <v>https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.tencent.smoba.jpg</v>
+        <v>https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.autonavi.amap.jpg</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="6" t="str">
         <f>CONCATENATE("https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/",B6,".jpg")</f>
-        <v>https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.tencent.smoba.jpg</v>
+        <v>https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.autonavi.amap.jpg</v>
       </c>
       <c r="C28" s="11"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
         <v>52</v>
@@ -1209,52 +1251,100 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
         <v>71</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="4"/>
+      <c r="B41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="B42" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1304,23 +1394,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1328,7 +1418,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1336,7 +1426,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1344,7 +1434,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1352,7 +1442,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>5</v>

--- a/App JSON Setting.xlsx
+++ b/App JSON Setting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CN-Dev-IPA-Mirror\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A41135-1331-421D-A64A-89ADBA82F70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDDC0B5-245F-4BF4-A8D5-46C01458582A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
   <si>
     <t>"name":</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,10 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>com.tencent.xin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,10 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13.13.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>com.autonavi.amap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -454,11 +446,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Amap_13.13.1_decrypted_tweak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高德地图_13.13.1_砸壳破解版</t>
+    <t>com.straight-tamago.misakaRS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flightradar24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Misaka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se.resenatverket.FlightRadar24-Free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iGameGod.framework</t>
+  </si>
+  <si>
+    <t>iGameGod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taobao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adobe Scan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.taobao.taobao4iphone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.adobe.scan.ios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.04.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浥轻尘\n• 纯净无弹窗\n• 购买后解锁高级版\n• 注入 Satella 插件\n• 支持自签和 Troll Store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adobe-Scan_24.04.16_Crack_YQC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,11 +620,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -875,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J17"/>
@@ -894,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>41</v>
@@ -912,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>461703208</v>
+        <v>1199564834</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
@@ -923,11 +966,11 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="J3" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""name"": ","""",B1,"""",",")</f>
-        <v xml:space="preserve">     "name": "高德地图",</v>
+        <v xml:space="preserve">     "name": "Adobe Scan",</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -935,7 +978,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J4" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""type"": ","""",B9,"""",",")</f>
@@ -947,11 +990,11 @@
         <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J5" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""bundleID"": ","""",B6,"""",",")</f>
-        <v xml:space="preserve">     "bundleID": "com.autonavi.amap",</v>
+        <v xml:space="preserve">     "bundleID": "com.adobe.scan.ios",</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -959,11 +1002,11 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="J6" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""bundleIdentifier"": ","""",B6,"""",",")</f>
-        <v xml:space="preserve">     "bundleIdentifier": "com.autonavi.amap",</v>
+        <v xml:space="preserve">     "bundleIdentifier": "com.adobe.scan.ios",</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -971,11 +1014,11 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="J7" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""version"": ","""",B7,"""",",")</f>
-        <v xml:space="preserve">     "version": "13.13.1",</v>
+        <v xml:space="preserve">     "version": "24.04.1",</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -983,7 +1026,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="1">
-        <v>262</v>
+        <v>124</v>
       </c>
       <c r="J8" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""versionDate"": ","""",B4,"""",",")</f>
@@ -1006,39 +1049,42 @@
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>87</v>
+      <c r="B10" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="J10" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""size"": ",B22,",")</f>
-        <v xml:space="preserve">     "size": 274726912,</v>
+        <v xml:space="preserve">     "size": 130023424,</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="J11" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""down"": ""https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/",B4,"/",B10,".ipa"",")</f>
-        <v xml:space="preserve">     "down": "https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-19/Amap_13.13.1_decrypted_tweak.ipa",</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">     "down": "https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-19/Adobe-Scan_24.04.16_Crack_YQC.ipa",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="J12" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""downloadURL"": ""https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/",B4,"/",B10,".ipa"",")</f>
-        <v xml:space="preserve">     "downloadURL": "https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-19/Amap_13.13.1_decrypted_tweak.ipa",</v>
+        <v xml:space="preserve">     "downloadURL": "https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-19/Adobe-Scan_24.04.16_Crack_YQC.ipa",</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J13" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""developerName"": ","""",B11,"""",",")</f>
-        <v xml:space="preserve">     "developerName": "",</v>
+        <v xml:space="preserve">     "developerName": "浥轻尘",</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1049,7 +1095,7 @@
       <c r="C14" s="4"/>
       <c r="J14" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""localizedDescription"": ","""",B12,"""",",")</f>
-        <v xml:space="preserve">     "localizedDescription": "高德地图_13.13.1_砸壳破解版",</v>
+        <v xml:space="preserve">     "localizedDescription": "浥轻尘\n• 纯净无弹窗\n• 购买后解锁高级版\n• 注入 Satella 插件\n• 支持自签和 Troll Store",</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1061,7 +1107,7 @@
       </c>
       <c r="J15" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""icon"": ""https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/",B6,".jpg"",")</f>
-        <v xml:space="preserve">     "icon": "https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.autonavi.amap.jpg",</v>
+        <v xml:space="preserve">     "icon": "https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.adobe.scan.ios.jpg",</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1073,7 +1119,7 @@
       </c>
       <c r="J16" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""iconURL"": ""https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/",B6,".jpg"",")</f>
-        <v xml:space="preserve">     "iconURL": "https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.autonavi.amap.jpg",</v>
+        <v xml:space="preserve">     "iconURL": "https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.adobe.scan.ios.jpg",</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1082,9 +1128,9 @@
       </c>
       <c r="B17" s="7" t="str">
         <f>CONCATENATE("https://itunes.apple.com/lookup?id=",B2,"&amp;country=",B3)</f>
-        <v>https://itunes.apple.com/lookup?id=461703208&amp;country=cn</v>
-      </c>
-      <c r="C17" s="11" t="s">
+        <v>https://itunes.apple.com/lookup?id=1199564834&amp;country=us</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>44</v>
       </c>
       <c r="J17" t="s">
@@ -1097,9 +1143,9 @@
       </c>
       <c r="B18" s="7" t="str">
         <f>CONCATENATE("https://itunes.apple.com/lookup?id=",B2,"&amp;country=",B3)</f>
-        <v>https://itunes.apple.com/lookup?id=461703208&amp;country=cn</v>
-      </c>
-      <c r="C18" s="11"/>
+        <v>https://itunes.apple.com/lookup?id=1199564834&amp;country=us</v>
+      </c>
+      <c r="C18" s="12"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -1139,7 +1185,7 @@
       </c>
       <c r="B22" s="1">
         <f>ROUNDDOWN(B8*1024*1024,0)</f>
-        <v>274726912</v>
+        <v>130023424</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>11</v>
@@ -1154,7 +1200,7 @@
       </c>
       <c r="B23" s="6" t="str">
         <f>CONCATENATE("https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/",B4,"/",B10,".ipa")</f>
-        <v>https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-19/Amap_13.13.1_decrypted_tweak.ipa</v>
+        <v>https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-19/Adobe-Scan_24.04.16_Crack_YQC.ipa</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1163,7 +1209,7 @@
       </c>
       <c r="B24" s="6" t="str">
         <f>CONCATENATE("https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/",B4,"/",B10,".ipa")</f>
-        <v>https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-19/Amap_13.13.1_decrypted_tweak.ipa</v>
+        <v>https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-19/Adobe-Scan_24.04.16_Crack_YQC.ipa</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1188,9 +1234,9 @@
       </c>
       <c r="B27" s="6" t="str">
         <f>CONCATENATE("https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/",B6,".jpg")</f>
-        <v>https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.autonavi.amap.jpg</v>
-      </c>
-      <c r="C27" s="11" t="s">
+        <v>https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.adobe.scan.ios.jpg</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1200,23 +1246,23 @@
       </c>
       <c r="B28" s="6" t="str">
         <f>CONCATENATE("https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/",B6,".jpg")</f>
-        <v>https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.autonavi.amap.jpg</v>
-      </c>
-      <c r="C28" s="11"/>
+        <v>https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.adobe.scan.ios.jpg</v>
+      </c>
+      <c r="C28" s="12"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>45</v>
@@ -1224,132 +1270,186 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42" t="s">
         <v>68</v>
-      </c>
-      <c r="C35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="4"/>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>64</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:C36">
-    <sortCondition ref="A31:A36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:C44">
+    <sortCondition ref="A31:A44"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="C27:C28"/>

--- a/App JSON Setting.xlsx
+++ b/App JSON Setting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CN-Dev-IPA-Mirror\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self-IPA-Mirror\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDDC0B5-245F-4BF4-A8D5-46C01458582A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1503AE4-B92F-4907-9805-742A4C275484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>"name":</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,14 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024-04-19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20240419000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>com.burbn.instagram</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -493,15 +485,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24.04.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浥轻尘\n• 纯净无弹窗\n• 购买后解锁高级版\n• 注入 Satella 插件\n• 支持自签和 Troll Store</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adobe-Scan_24.04.16_Crack_YQC</t>
+    <t>2024-04-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240422000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swaggyP36000\nAs the successor of the original and now outdated Spotilife tweak, EeveeSpotify emerges as the first and only tweak in 2024 with significant potential for accessing Premium features on latest versions of Spotify.\nNote: Widgets work but their refresh times may be unusually long. The tweak will continue to work if you reinstall Spotify from the App Store over EeveeSpotify but the premium icon will show.\nLast updated: 04-21-2024\nStatus: \u2705 \u2b50 \ud83d\udc4d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.9.32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EeveeSpotify-8.9.32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EeveeSpotify</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -920,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -937,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>41</v>
@@ -954,9 +958,6 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
-        <v>1199564834</v>
-      </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
@@ -966,11 +967,11 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J3" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""name"": ","""",B1,"""",",")</f>
-        <v xml:space="preserve">     "name": "Adobe Scan",</v>
+        <v xml:space="preserve">     "name": "EeveeSpotify",</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -978,7 +979,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="J4" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""type"": ","""",B9,"""",",")</f>
@@ -990,11 +991,11 @@
         <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="J5" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""bundleID"": ","""",B6,"""",",")</f>
-        <v xml:space="preserve">     "bundleID": "com.adobe.scan.ios",</v>
+        <v xml:space="preserve">     "bundleID": "com.spotify.client",</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1002,11 +1003,11 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="J6" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""bundleIdentifier"": ","""",B6,"""",",")</f>
-        <v xml:space="preserve">     "bundleIdentifier": "com.adobe.scan.ios",</v>
+        <v xml:space="preserve">     "bundleIdentifier": "com.spotify.client",</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1014,11 +1015,11 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J7" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""version"": ","""",B7,"""",",")</f>
-        <v xml:space="preserve">     "version": "24.04.1",</v>
+        <v xml:space="preserve">     "version": "8.9.32",</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1026,11 +1027,11 @@
         <v>53</v>
       </c>
       <c r="B8" s="1">
-        <v>124</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="J8" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""versionDate"": ","""",B4,"""",",")</f>
-        <v xml:space="preserve">     "versionDate": "2024-04-19",</v>
+        <v xml:space="preserve">     "versionDate": "2024-04-22",</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1042,7 +1043,7 @@
       </c>
       <c r="J9" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""fullDate"": ","""",B5,"""",",")</f>
-        <v xml:space="preserve">     "fullDate": "20240419000000",</v>
+        <v xml:space="preserve">     "fullDate": "20240422000000",</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1054,37 +1055,34 @@
       </c>
       <c r="J10" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""size"": ",B22,",")</f>
-        <v xml:space="preserve">     "size": 130023424,</v>
+        <v xml:space="preserve">     "size": 68052582,</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="J11" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""down"": ""https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/",B4,"/",B10,".ipa"",")</f>
-        <v xml:space="preserve">     "down": "https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-19/Adobe-Scan_24.04.16_Crack_YQC.ipa",</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">     "down": "https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-22/EeveeSpotify-8.9.32.ipa",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="180" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J12" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""downloadURL"": ""https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/",B4,"/",B10,".ipa"",")</f>
-        <v xml:space="preserve">     "downloadURL": "https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-19/Adobe-Scan_24.04.16_Crack_YQC.ipa",</v>
+        <v xml:space="preserve">     "downloadURL": "https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-22/EeveeSpotify-8.9.32.ipa",</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J13" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""developerName"": ","""",B11,"""",",")</f>
-        <v xml:space="preserve">     "developerName": "浥轻尘",</v>
+        <v xml:space="preserve">     "developerName": "",</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1095,7 +1093,7 @@
       <c r="C14" s="4"/>
       <c r="J14" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""localizedDescription"": ","""",B12,"""",",")</f>
-        <v xml:space="preserve">     "localizedDescription": "浥轻尘\n• 纯净无弹窗\n• 购买后解锁高级版\n• 注入 Satella 插件\n• 支持自签和 Troll Store",</v>
+        <v xml:space="preserve">     "localizedDescription": "swaggyP36000\nAs the successor of the original and now outdated Spotilife tweak, EeveeSpotify emerges as the first and only tweak in 2024 with significant potential for accessing Premium features on latest versions of Spotify.\nNote: Widgets work but their refresh times may be unusually long. The tweak will continue to work if you reinstall Spotify from the App Store over EeveeSpotify but the premium icon will show.\nLast updated: 04-21-2024\nStatus: \u2705 \u2b50 \ud83d\udc4d",</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1107,7 +1105,7 @@
       </c>
       <c r="J15" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""icon"": ""https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/",B6,".jpg"",")</f>
-        <v xml:space="preserve">     "icon": "https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.adobe.scan.ios.jpg",</v>
+        <v xml:space="preserve">     "icon": "https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.spotify.client.jpg",</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1119,7 +1117,7 @@
       </c>
       <c r="J16" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""iconURL"": ""https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/",B6,".jpg"",")</f>
-        <v xml:space="preserve">     "iconURL": "https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.adobe.scan.ios.jpg",</v>
+        <v xml:space="preserve">     "iconURL": "https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.spotify.client.jpg",</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1128,7 +1126,7 @@
       </c>
       <c r="B17" s="7" t="str">
         <f>CONCATENATE("https://itunes.apple.com/lookup?id=",B2,"&amp;country=",B3)</f>
-        <v>https://itunes.apple.com/lookup?id=1199564834&amp;country=us</v>
+        <v>https://itunes.apple.com/lookup?id=&amp;country=us</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>44</v>
@@ -1143,7 +1141,7 @@
       </c>
       <c r="B18" s="7" t="str">
         <f>CONCATENATE("https://itunes.apple.com/lookup?id=",B2,"&amp;country=",B3)</f>
-        <v>https://itunes.apple.com/lookup?id=1199564834&amp;country=us</v>
+        <v>https://itunes.apple.com/lookup?id=&amp;country=us</v>
       </c>
       <c r="C18" s="12"/>
       <c r="J18" s="4"/>
@@ -1185,7 +1183,7 @@
       </c>
       <c r="B22" s="1">
         <f>ROUNDDOWN(B8*1024*1024,0)</f>
-        <v>130023424</v>
+        <v>68052582</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>11</v>
@@ -1200,7 +1198,7 @@
       </c>
       <c r="B23" s="6" t="str">
         <f>CONCATENATE("https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/",B4,"/",B10,".ipa")</f>
-        <v>https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-19/Adobe-Scan_24.04.16_Crack_YQC.ipa</v>
+        <v>https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-22/EeveeSpotify-8.9.32.ipa</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1209,7 +1207,7 @@
       </c>
       <c r="B24" s="6" t="str">
         <f>CONCATENATE("https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/",B4,"/",B10,".ipa")</f>
-        <v>https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-19/Adobe-Scan_24.04.16_Crack_YQC.ipa</v>
+        <v>https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-22/EeveeSpotify-8.9.32.ipa</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1234,7 +1232,7 @@
       </c>
       <c r="B27" s="6" t="str">
         <f>CONCATENATE("https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/",B6,".jpg")</f>
-        <v>https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.adobe.scan.ios.jpg</v>
+        <v>https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.spotify.client.jpg</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>43</v>
@@ -1246,7 +1244,7 @@
       </c>
       <c r="B28" s="6" t="str">
         <f>CONCATENATE("https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/",B6,".jpg")</f>
-        <v>https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.adobe.scan.ios.jpg</v>
+        <v>https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.spotify.client.jpg</v>
       </c>
       <c r="C28" s="12"/>
     </row>
@@ -1270,85 +1268,85 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B32"/>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B34"/>
       <c r="C34" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B35"/>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36"/>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B37"/>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B38"/>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39"/>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B40"/>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1364,11 +1362,11 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1391,37 +1389,37 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" t="s">
         <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1464,7 +1462,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{71C91240-977F-404C-AC90-D0DEDA772ECC}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71C91240-977F-404C-AC90-D0DEDA772ECC}">
           <x14:formula1>
             <xm:f>工作表2!$A$3:$A$7</xm:f>
           </x14:formula1>

--- a/App JSON Setting.xlsx
+++ b/App JSON Setting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self-IPA-Mirror\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1503AE4-B92F-4907-9805-742A4C275484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1181FA-D701-4428-937C-89BA677C7829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>"name":</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,27 +485,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024-04-22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20240422000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swaggyP36000\nAs the successor of the original and now outdated Spotilife tweak, EeveeSpotify emerges as the first and only tweak in 2024 with significant potential for accessing Premium features on latest versions of Spotify.\nNote: Widgets work but their refresh times may be unusually long. The tweak will continue to work if you reinstall Spotify from the App Store over EeveeSpotify but the premium icon will show.\nLast updated: 04-21-2024\nStatus: \u2705 \u2b50 \ud83d\udc4d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.9.32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EeveeSpotify-8.9.32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EeveeSpotify</t>
+    <t>2024-04-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240423000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tigisoftware.Filza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0.0-b3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filza_4.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPA file (v4.0.0-b3) for TrollStore\nhttps://www.tigisoftware.com/default/?p=439</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -941,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>41</v>
@@ -971,7 +975,7 @@
       </c>
       <c r="J3" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""name"": ","""",B1,"""",",")</f>
-        <v xml:space="preserve">     "name": "EeveeSpotify",</v>
+        <v xml:space="preserve">     "name": "Filza",</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -995,19 +999,19 @@
       </c>
       <c r="J5" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""bundleID"": ","""",B6,"""",",")</f>
-        <v xml:space="preserve">     "bundleID": "com.spotify.client",</v>
+        <v xml:space="preserve">     "bundleID": "com.tigisoftware.Filza",</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>79</v>
+      <c r="B6" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="J6" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""bundleIdentifier"": ","""",B6,"""",",")</f>
-        <v xml:space="preserve">     "bundleIdentifier": "com.spotify.client",</v>
+        <v xml:space="preserve">     "bundleIdentifier": "com.tigisoftware.Filza",</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1015,11 +1019,11 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J7" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""version"": ","""",B7,"""",",")</f>
-        <v xml:space="preserve">     "version": "8.9.32",</v>
+        <v xml:space="preserve">     "version": "4.0.0-b3",</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1027,11 +1031,11 @@
         <v>53</v>
       </c>
       <c r="B8" s="1">
-        <v>64.900000000000006</v>
+        <v>13.2</v>
       </c>
       <c r="J8" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""versionDate"": ","""",B4,"""",",")</f>
-        <v xml:space="preserve">     "versionDate": "2024-04-22",</v>
+        <v xml:space="preserve">     "versionDate": "2024-04-23",</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1043,7 +1047,7 @@
       </c>
       <c r="J9" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""fullDate"": ","""",B5,"""",",")</f>
-        <v xml:space="preserve">     "fullDate": "20240422000000",</v>
+        <v xml:space="preserve">     "fullDate": "20240423000000",</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1051,11 +1055,11 @@
         <v>19</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J10" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""size"": ",B22,",")</f>
-        <v xml:space="preserve">     "size": 68052582,</v>
+        <v xml:space="preserve">     "size": 13841203,</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1064,19 +1068,19 @@
       </c>
       <c r="J11" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""down"": ""https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/",B4,"/",B10,".ipa"",")</f>
-        <v xml:space="preserve">     "down": "https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-22/EeveeSpotify-8.9.32.ipa",</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="180" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">     "down": "https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-23/Filza_4.0.0.ipa",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J12" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""downloadURL"": ""https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/",B4,"/",B10,".ipa"",")</f>
-        <v xml:space="preserve">     "downloadURL": "https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-22/EeveeSpotify-8.9.32.ipa",</v>
+        <v xml:space="preserve">     "downloadURL": "https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-23/Filza_4.0.0.ipa",</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1093,7 +1097,7 @@
       <c r="C14" s="4"/>
       <c r="J14" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""localizedDescription"": ","""",B12,"""",",")</f>
-        <v xml:space="preserve">     "localizedDescription": "swaggyP36000\nAs the successor of the original and now outdated Spotilife tweak, EeveeSpotify emerges as the first and only tweak in 2024 with significant potential for accessing Premium features on latest versions of Spotify.\nNote: Widgets work but their refresh times may be unusually long. The tweak will continue to work if you reinstall Spotify from the App Store over EeveeSpotify but the premium icon will show.\nLast updated: 04-21-2024\nStatus: \u2705 \u2b50 \ud83d\udc4d",</v>
+        <v xml:space="preserve">     "localizedDescription": "IPA file (v4.0.0-b3) for TrollStore\nhttps://www.tigisoftware.com/default/?p=439",</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1105,7 +1109,7 @@
       </c>
       <c r="J15" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""icon"": ""https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/",B6,".jpg"",")</f>
-        <v xml:space="preserve">     "icon": "https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.spotify.client.jpg",</v>
+        <v xml:space="preserve">     "icon": "https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.tigisoftware.Filza.jpg",</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1117,7 +1121,7 @@
       </c>
       <c r="J16" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,"     ""iconURL"": ""https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/",B6,".jpg"",")</f>
-        <v xml:space="preserve">     "iconURL": "https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.spotify.client.jpg",</v>
+        <v xml:space="preserve">     "iconURL": "https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.tigisoftware.Filza.jpg",</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1183,7 +1187,7 @@
       </c>
       <c r="B22" s="1">
         <f>ROUNDDOWN(B8*1024*1024,0)</f>
-        <v>68052582</v>
+        <v>13841203</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>11</v>
@@ -1198,7 +1202,7 @@
       </c>
       <c r="B23" s="6" t="str">
         <f>CONCATENATE("https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/",B4,"/",B10,".ipa")</f>
-        <v>https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-22/EeveeSpotify-8.9.32.ipa</v>
+        <v>https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-23/Filza_4.0.0.ipa</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1207,7 +1211,7 @@
       </c>
       <c r="B24" s="6" t="str">
         <f>CONCATENATE("https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/",B4,"/",B10,".ipa")</f>
-        <v>https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-22/EeveeSpotify-8.9.32.ipa</v>
+        <v>https://github.com/Megumi-B/CN-Dev-IPA-Mirror/releases/download/2024-04-23/Filza_4.0.0.ipa</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1232,7 +1236,7 @@
       </c>
       <c r="B27" s="6" t="str">
         <f>CONCATENATE("https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/",B6,".jpg")</f>
-        <v>https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.spotify.client.jpg</v>
+        <v>https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.tigisoftware.Filza.jpg</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>43</v>
@@ -1244,7 +1248,7 @@
       </c>
       <c r="B28" s="6" t="str">
         <f>CONCATENATE("https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/",B6,".jpg")</f>
-        <v>https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.spotify.client.jpg</v>
+        <v>https://raw.githubusercontent.com/Megumi-B/CN-Dev-IPA-Mirror/main/icons/com.tigisoftware.Filza.jpg</v>
       </c>
       <c r="C28" s="12"/>
     </row>
